--- a/Wizyty_1.xlsx
+++ b/Wizyty_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185"/>
+    <workbookView windowWidth="19890" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Wizyty" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>Numer wizyty</t>
   </si>
@@ -129,20 +129,43 @@
   </si>
   <si>
     <t>Wydatki</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,20 +175,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,23 +199,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,8 +229,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,10 +246,17 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,6 +268,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -244,63 +321,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +344,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,169 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,26 +538,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,11 +588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,32 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -606,210 +626,224 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
-    <cellStyle name="Użyte hiperłącze" xfId="2" builtinId="9"/>
-    <cellStyle name="Walutowy" xfId="3" builtinId="4"/>
-    <cellStyle name="20% - Akcent 2" xfId="4" builtinId="34"/>
-    <cellStyle name="20% - Akcent 6" xfId="5" builtinId="50"/>
-    <cellStyle name="Akcent 2" xfId="6" builtinId="33"/>
-    <cellStyle name="Nagłówek 2" xfId="7" builtinId="17"/>
-    <cellStyle name="Dziesiętny" xfId="8" builtinId="3"/>
-    <cellStyle name="Procentowy" xfId="9" builtinId="5"/>
-    <cellStyle name="40% - Akcent 3" xfId="10" builtinId="39"/>
-    <cellStyle name="Przecinek [0]" xfId="11" builtinId="6"/>
-    <cellStyle name="Waluta [0]" xfId="12" builtinId="7"/>
-    <cellStyle name="Uwaga" xfId="13" builtinId="10"/>
-    <cellStyle name="Hiperłącze" xfId="14" builtinId="8"/>
-    <cellStyle name="20% - Akcent 1" xfId="15" builtinId="30"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="16" builtinId="11"/>
-    <cellStyle name="40% - Akcent 4" xfId="17" builtinId="43"/>
-    <cellStyle name="Dane wejściowe" xfId="18" builtinId="20"/>
-    <cellStyle name="Tytuł" xfId="19" builtinId="15"/>
-    <cellStyle name="Tekst objaśnienia" xfId="20" builtinId="53"/>
-    <cellStyle name="20% - Akcent 5" xfId="21" builtinId="46"/>
-    <cellStyle name="Akcent 1" xfId="22" builtinId="29"/>
-    <cellStyle name="Nagłówek 1" xfId="23" builtinId="16"/>
-    <cellStyle name="Akcent 3" xfId="24" builtinId="37"/>
-    <cellStyle name="Nagłówek 3" xfId="25" builtinId="18"/>
-    <cellStyle name="Akcent 4" xfId="26" builtinId="41"/>
-    <cellStyle name="Nagłówek 4" xfId="27" builtinId="19"/>
-    <cellStyle name="Obliczenia" xfId="28" builtinId="22"/>
-    <cellStyle name="Komórka zaznaczona" xfId="29" builtinId="23"/>
-    <cellStyle name="Komórka połączona" xfId="30" builtinId="24"/>
-    <cellStyle name="Neutralne" xfId="31" builtinId="28"/>
-    <cellStyle name="Suma" xfId="32" builtinId="25"/>
-    <cellStyle name="Dobre" xfId="33" builtinId="26"/>
-    <cellStyle name="Złe" xfId="34" builtinId="27"/>
-    <cellStyle name="40% - Akcent 1" xfId="35" builtinId="31"/>
-    <cellStyle name="60% - Akcent 1" xfId="36" builtinId="32"/>
-    <cellStyle name="40% - Akcent 2" xfId="37" builtinId="35"/>
-    <cellStyle name="60% - Akcent 2" xfId="38" builtinId="36"/>
-    <cellStyle name="20% - Akcent 3" xfId="39" builtinId="38"/>
-    <cellStyle name="60% - Akcent 3" xfId="40" builtinId="40"/>
-    <cellStyle name="20% - Akcent 4" xfId="41" builtinId="42"/>
-    <cellStyle name="60% - Akcent 4" xfId="42" builtinId="44"/>
-    <cellStyle name="Akcent 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Akcent 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Akcent 5" xfId="45" builtinId="48"/>
-    <cellStyle name="Akcent 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Akcent 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Akcent 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1082,7 +1116,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -1095,30 +1129,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1127,7 +1161,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>43368.7277777778</v>
       </c>
       <c r="E2" t="s">
@@ -1138,7 +1172,7 @@
       </c>
     </row>
     <row r="3" ht="12.75" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1147,7 +1181,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>43208.1270833333</v>
       </c>
       <c r="E3" t="s">
@@ -1158,7 +1192,7 @@
       </c>
     </row>
     <row r="4" ht="12.75" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1167,7 +1201,7 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>43228.3597222222</v>
       </c>
       <c r="E4" t="s">
@@ -1178,7 +1212,7 @@
       </c>
     </row>
     <row r="5" ht="12.75" spans="1:7">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1187,7 +1221,7 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>43354.5194444444</v>
       </c>
       <c r="E5" t="s">
@@ -1198,7 +1232,7 @@
       </c>
     </row>
     <row r="6" ht="12.75" spans="1:7">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1207,7 +1241,7 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>43279.1229166667</v>
       </c>
       <c r="E6" t="s">
@@ -1218,7 +1252,7 @@
       </c>
     </row>
     <row r="7" ht="12.75" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1227,7 +1261,7 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>43212.5423611111</v>
       </c>
       <c r="E7" t="s">
@@ -1238,7 +1272,7 @@
       </c>
     </row>
     <row r="8" ht="12.75" spans="1:7">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1247,7 +1281,7 @@
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>43301.9951388889</v>
       </c>
       <c r="E8" t="s">
@@ -1258,7 +1292,7 @@
       </c>
     </row>
     <row r="9" ht="12.75" spans="1:7">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1267,7 +1301,7 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>43259.0909722222</v>
       </c>
       <c r="E9" t="s">
@@ -1278,7 +1312,7 @@
       </c>
     </row>
     <row r="10" ht="12.75" spans="1:7">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1287,7 +1321,7 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>43212.3993055556</v>
       </c>
       <c r="E10" t="s">
@@ -1298,7 +1332,7 @@
       </c>
     </row>
     <row r="11" ht="12.75" spans="1:7">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1307,7 +1341,7 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>43158.7222222222</v>
       </c>
       <c r="E11" t="s">
@@ -1318,7 +1352,7 @@
       </c>
     </row>
     <row r="12" ht="12.75" spans="1:7">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1327,7 +1361,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>43324.3979166667</v>
       </c>
       <c r="E12" t="s">
@@ -1338,7 +1372,7 @@
       </c>
     </row>
     <row r="13" ht="12.75" spans="1:7">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1347,7 +1381,7 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>43221.5895833333</v>
       </c>
       <c r="E13" t="s">
@@ -1358,7 +1392,7 @@
       </c>
     </row>
     <row r="14" ht="12.75" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1367,7 +1401,7 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>43356.3138888889</v>
       </c>
       <c r="E14" t="s">
@@ -1378,7 +1412,7 @@
       </c>
     </row>
     <row r="15" ht="12.75" spans="1:7">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1387,7 +1421,7 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>43306.2833333333</v>
       </c>
       <c r="E15" t="s">
@@ -1398,7 +1432,7 @@
       </c>
     </row>
     <row r="16" ht="12.75" spans="1:7">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1407,7 +1441,7 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>43296.7263888889</v>
       </c>
       <c r="E16" t="s">
@@ -1418,7 +1452,7 @@
       </c>
     </row>
     <row r="17" ht="12.75" spans="1:7">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1427,7 +1461,7 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>43203.9506944444</v>
       </c>
       <c r="E17" t="s">
@@ -1438,7 +1472,7 @@
       </c>
     </row>
     <row r="18" ht="12.75" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1447,7 +1481,7 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>43221.4840277778</v>
       </c>
       <c r="E18" t="s">
@@ -1458,7 +1492,7 @@
       </c>
     </row>
     <row r="19" ht="12.75" spans="1:7">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1467,7 +1501,7 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>43274.0527777778</v>
       </c>
       <c r="E19" t="s">
@@ -1478,7 +1512,7 @@
       </c>
     </row>
     <row r="20" ht="12.75" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1487,7 +1521,7 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>43190.7534722222</v>
       </c>
       <c r="E20" t="s">
@@ -1498,7 +1532,7 @@
       </c>
     </row>
     <row r="21" ht="12.75" spans="1:7">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1507,7 +1541,7 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>43190.0416666667</v>
       </c>
       <c r="E21" t="s">
@@ -1527,7 +1561,7 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>43368.7277777778</v>
       </c>
       <c r="E22" t="s">
@@ -1547,7 +1581,7 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>43368.7277777778</v>
       </c>
       <c r="E23" t="s">
@@ -1567,7 +1601,7 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>43208.1270833333</v>
       </c>
       <c r="E24" t="s">
@@ -1578,25 +1612,25 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="4:4">
-      <c r="D25" s="3"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="4:4">
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="4:4">
-      <c r="D27" s="3"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="4:4">
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="4:4">
-      <c r="D29" s="3"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="4:4">
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="4:4">
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1609,13 +1643,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="12.75" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1625,13 +1659,74 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="12.75" spans="1:1">
-      <c r="A2" s="2"/>
+    <row r="2" ht="12.75" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10353.969</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31303.548</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15464.826</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10690.47</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10400.868</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3885.984</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4831.038</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3569.877</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" sqref="A2:A1000">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(A2))),AND(ISNUMBER(A2),LEFT(CELL("format",A2))="D"))</formula1>
+    <dataValidation type="custom" allowBlank="1" sqref="A10:A1000">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(A10))),AND(ISNUMBER(A10),LEFT(CELL("format",A10))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
